--- a/doc/sampleUsageOfKeywords.xlsx
+++ b/doc/sampleUsageOfKeywords.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="137">
   <si>
     <t>Action</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>WaitForPageToLoad</t>
   </si>
   <si>
     <t>WaitForElementPresent</t>
@@ -818,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -849,7 +846,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -861,7 +858,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -873,19 +870,19 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -895,7 +892,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -907,7 +904,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -919,19 +916,19 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -943,7 +940,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
@@ -955,19 +952,19 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>11</v>
@@ -979,7 +976,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>11</v>
@@ -991,19 +988,19 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>13</v>
@@ -1013,7 +1010,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -1025,7 +1022,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -1037,7 +1034,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
@@ -1049,7 +1046,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>13</v>
@@ -1063,7 +1060,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>13</v>
@@ -1077,7 +1074,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
@@ -1087,7 +1084,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>18</v>
@@ -1099,7 +1096,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>20</v>
@@ -1109,7 +1106,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>21</v>
@@ -1119,7 +1116,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>22</v>
@@ -1129,7 +1126,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>23</v>
@@ -1141,19 +1138,19 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>25</v>
@@ -1163,7 +1160,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>26</v>
@@ -1175,7 +1172,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>29</v>
@@ -1185,7 +1182,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>30</v>
@@ -1197,7 +1194,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>31</v>
@@ -1207,7 +1204,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>32</v>
@@ -1219,7 +1216,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>33</v>
@@ -1229,7 +1226,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>34</v>
@@ -1239,7 +1236,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>35</v>
@@ -1251,7 +1248,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>36</v>
@@ -1322,7 +1319,9 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
@@ -1331,7 +1330,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>46</v>
@@ -1341,7 +1340,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>47</v>
@@ -1351,7 +1350,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>48</v>
@@ -1361,65 +1360,65 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>52</v>
@@ -1429,29 +1428,31 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="4"/>
+      <c r="C55" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>54</v>
@@ -1463,35 +1464,33 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D60" s="4"/>
     </row>
@@ -1500,9 +1499,7 @@
       <c r="B61" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1510,7 +1507,9 @@
       <c r="B62" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,14 +1518,14 @@
         <v>58</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>60</v>
@@ -1536,49 +1535,51 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
+      <c r="A68" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="B68" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>24</v>
@@ -1587,10 +1588,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>24</v>
@@ -1599,10 +1600,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>24</v>
@@ -1611,79 +1612,77 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="C72" s="4"/>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>83</v>
@@ -1696,41 +1695,43 @@
         <v>134</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>14</v>
@@ -1739,54 +1740,52 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C84" s="4"/>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="A88" s="4"/>
       <c r="B88" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="4"/>
+      <c r="C88" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,7 +1794,7 @@
         <v>95</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D89" s="4"/>
     </row>
@@ -1805,7 +1804,7 @@
         <v>96</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D90" s="4"/>
     </row>
@@ -1815,23 +1814,23 @@
         <v>97</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
+      <c r="A92" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="B92" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="C92" s="4"/>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>99</v>
@@ -1841,7 +1840,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>100</v>
@@ -1851,7 +1850,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>101</v>
@@ -1861,41 +1860,43 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="4"/>
+      <c r="C96" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>106</v>
@@ -1907,7 +1908,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>107</v>
@@ -1919,7 +1920,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>108</v>
@@ -1931,110 +1932,110 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B106" s="5" t="s">
+      <c r="A106" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D106" s="4"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B107" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+      <c r="B108" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="C108" s="6"/>
       <c r="D108" s="6"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
-      <c r="B109" s="7" t="s">
+      <c r="A109" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C110" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="D110" s="8"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>106</v>
+        <v>130</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>7</v>
@@ -2042,41 +2043,41 @@
       <c r="D111" s="8"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A112" s="8"/>
+      <c r="B112" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C112" s="8"/>
       <c r="D112" s="8"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-      <c r="B113" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
+      <c r="A113" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C114" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="D114" s="6"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>7</v>
@@ -2084,41 +2085,41 @@
       <c r="D115" s="6"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="A116" s="6"/>
       <c r="B116" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C116" s="6"/>
       <c r="D116" s="6"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
-      <c r="B117" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
+      <c r="A117" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C118" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="D118" s="8"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>106</v>
+        <v>130</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>7</v>
@@ -2126,318 +2127,306 @@
       <c r="D119" s="8"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A120" s="8"/>
+      <c r="B120" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C120" s="8"/>
       <c r="D120" s="8"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
-      <c r="B121" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
+      <c r="A121" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D121" s="6"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>119</v>
+        <v>130</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C122" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="6"/>
+      <c r="B123" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D122" s="6"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C123" s="6" t="s">
+      <c r="C124" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="6"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
-      <c r="B124" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
+      <c r="D124" s="8"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C125" s="8"/>
       <c r="D125" s="8"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C126" s="8"/>
+        <v>130</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A127" s="8"/>
+      <c r="B127" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C127" s="8"/>
       <c r="D127" s="8"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
-      <c r="B128" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
+      <c r="A128" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D128" s="6"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="6"/>
+      <c r="B130" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D129" s="6"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130" s="6" t="s">
+      <c r="C131" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D130" s="6"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="6"/>
-      <c r="B131" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
+      <c r="D131" s="8"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>131</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C132" s="8"/>
       <c r="D132" s="8"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C133" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="D133" s="8"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A134" s="8"/>
+      <c r="B134" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C134" s="8"/>
       <c r="D134" s="8"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
-      <c r="B135" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
+      <c r="A135" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C138" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="D138" s="6"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>103</v>
+        <v>134</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D139" s="6"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
-        <v>135</v>
-      </c>
+      <c r="A140" s="6"/>
       <c r="B140" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>90</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C140" s="6"/>
       <c r="D140" s="6"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="6"/>
+      <c r="A141" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="B141" s="6" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C142" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="D142" s="6"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A143" s="6"/>
+      <c r="B143" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C143" s="6"/>
       <c r="D143" s="6"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="6"/>
-      <c r="B144" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
+      <c r="A144" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>131</v>
       </c>
       <c r="B145" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D145" s="8"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C146" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D145" s="8"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D146" s="8"/>
+      <c r="D146" s="6"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D147" s="6"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D148" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C16:C17 C19:C20 C36:C37 C43:C44 C83:C84" numberStoredAsText="1"/>
+    <ignoredError sqref="C16:C17 C19:C20 C36:C37 C43:C44 C82:C83" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/doc/sampleUsageOfKeywords.xlsx
+++ b/doc/sampleUsageOfKeywords.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="138">
   <si>
     <t>Action</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Options</t>
   </si>
   <si>
-    <t>{{messages.login.password}}</t>
-  </si>
-  <si>
-    <t>Property Name</t>
-  </si>
-  <si>
     <t>xyz</t>
   </si>
   <si>
@@ -48,9 +42,6 @@
     <t>ClearAndType</t>
   </si>
   <si>
-    <t>{{messages.login.username}}</t>
-  </si>
-  <si>
     <t>ClearAndTypeUnique</t>
   </si>
   <si>
@@ -204,12 +195,6 @@
     <t>Do you want to delete this record?</t>
   </si>
   <si>
-    <t>replace syntax {{messages.login.password}} message</t>
-  </si>
-  <si>
-    <t>eplace syntax {{messages.login.username}} message</t>
-  </si>
-  <si>
     <t>AssertTitle</t>
   </si>
   <si>
@@ -246,21 +231,9 @@
     <t>VerifyElementNotPresent</t>
   </si>
   <si>
-    <t>{{messages.register.male}}</t>
-  </si>
-  <si>
-    <t>{{messages.user.username}}</t>
-  </si>
-  <si>
-    <t>{{messages.global.successmessage}}</t>
-  </si>
-  <si>
     <t>Record Created Successfully</t>
   </si>
   <si>
-    <t>{{messages.global.recorddelete}}</t>
-  </si>
-  <si>
     <t>AssertChecked</t>
   </si>
   <si>
@@ -402,12 +375,6 @@
     <t>PutTextIn</t>
   </si>
   <si>
-    <t>replace syntax {{get.name}} message</t>
-  </si>
-  <si>
-    <t>replace syntax {{get.message}} message</t>
-  </si>
-  <si>
     <t>login.Username</t>
   </si>
   <si>
@@ -427,6 +394,42 @@
   </si>
   <si>
     <t>global.successMessage</t>
+  </si>
+  <si>
+    <t>Web Element</t>
+  </si>
+  <si>
+    <t>&lt;{login.password}&gt;</t>
+  </si>
+  <si>
+    <t>eplace syntax &lt;{login.username}&gt; message</t>
+  </si>
+  <si>
+    <t>&lt;{login.username}&gt;</t>
+  </si>
+  <si>
+    <t>replace syntax &lt;{login.password}&gt; message</t>
+  </si>
+  <si>
+    <t>&lt;{register.male}&gt;</t>
+  </si>
+  <si>
+    <t>&lt;{user.username}&gt;</t>
+  </si>
+  <si>
+    <t>replace syntax &lt;?name?&gt; message</t>
+  </si>
+  <si>
+    <t>replace syntax &lt;?message?&gt; message</t>
+  </si>
+  <si>
+    <t>&lt;{global.recorddelete}&gt;</t>
+  </si>
+  <si>
+    <t>&lt;{global.successmessage}&gt;</t>
+  </si>
+  <si>
+    <t>CaptureScreenShot</t>
   </si>
 </sst>
 </file>
@@ -815,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -824,18 +827,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="48.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -846,1587 +849,1595 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>25</v>
+      <c r="A28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>29</v>
+      <c r="B30" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
+      <c r="A31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>31</v>
+      <c r="A32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>32</v>
+      <c r="A33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>33</v>
+      <c r="A34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>34</v>
+      <c r="A35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="A39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="A41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="A44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="4"/>
+      <c r="A45" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>46</v>
+      <c r="A46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>47</v>
+      <c r="A47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>48</v>
+      <c r="A48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>49</v>
+      <c r="A50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>50</v>
+      <c r="A51" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>50</v>
+      <c r="A52" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="4"/>
+      <c r="A53" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>52</v>
+      <c r="A54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="5" t="s">
+      <c r="A55" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5" t="s">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5" t="s">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5" t="s">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5" t="s">
+      <c r="B71" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5" t="s">
+      <c r="B72" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>74</v>
+      <c r="B73" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>73</v>
+      <c r="A74" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>75</v>
+      <c r="A75" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>81</v>
+      <c r="A76" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>84</v>
+      <c r="A77" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>82</v>
+      <c r="A78" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>83</v>
+      <c r="A79" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A80" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="4"/>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>87</v>
+      <c r="A81" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>86</v>
+      <c r="A82" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>88</v>
+      <c r="A83" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84" s="4"/>
+      <c r="A84" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>92</v>
+      <c r="A85" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>91</v>
+      <c r="A86" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>93</v>
+      <c r="A87" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="A88" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C88" s="4"/>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="A89" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" s="4"/>
       <c r="C89" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="A90" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="A91" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" s="4"/>
       <c r="C91" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C92" s="4"/>
+      <c r="A92" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>99</v>
+      <c r="A93" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>100</v>
+      <c r="A94" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>101</v>
+      <c r="A95" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B96" s="5" t="s">
+      <c r="A96" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="B104" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B98" s="5" t="s">
+      <c r="B107" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B99" s="5" t="s">
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B100" s="5" t="s">
+      <c r="B110" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="8"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="8"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B101" s="5" t="s">
+      <c r="B114" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
-      <c r="B108" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B110" s="9" t="s">
+      <c r="B118" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="8"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="8"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" s="8"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" s="8"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
-      <c r="B112" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="6"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D115" s="6"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
-      <c r="B116" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="8"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D119" s="8"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
-      <c r="B120" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D121" s="6"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B122" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D122" s="6"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="6"/>
-      <c r="B123" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C123" s="6"/>
+      <c r="B123" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D123" s="6"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D124" s="8"/>
+      <c r="A124" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C125" s="8"/>
+      <c r="A125" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="D125" s="8"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
-        <v>130</v>
+      <c r="A126" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B126" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C126" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126" s="8"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
-      <c r="B127" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C127" s="8"/>
+      <c r="B127" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="D127" s="8"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D128" s="6"/>
+      <c r="A128" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B129" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D129" s="6"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
-      <c r="B130" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C130" s="6"/>
+      <c r="B130" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D130" s="6"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D131" s="8"/>
+      <c r="A131" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C132" s="8"/>
+      <c r="A132" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="D132" s="8"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
-        <v>131</v>
+      <c r="A133" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B133" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C133" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D133" s="8"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
-      <c r="B134" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C134" s="8"/>
+      <c r="B134" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="D134" s="8"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
+      <c r="A135" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>13</v>
+      <c r="A136" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>81</v>
+      <c r="A137" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="A138" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C138" s="6"/>
       <c r="D138" s="6"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
-        <v>134</v>
+      <c r="A139" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D139" s="6"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="6"/>
+      <c r="A140" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="B140" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C140" s="6"/>
+      <c r="C140" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D140" s="6"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="B142" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D142" s="6"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="6"/>
-      <c r="B143" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C143" s="6"/>
+      <c r="B143" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D143" s="6"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D144" s="8"/>
+      <c r="A144" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B145" s="9" t="s">
+      <c r="A145" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D145" s="8"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C145" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D145" s="8"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C146" s="6" t="s">
+      <c r="B146" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D146" s="8"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D146" s="6"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B147" s="7" t="s">
+      <c r="C147" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D147" s="6"/>
+      <c r="B148" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D148" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C16:C17 C19:C20 C36:C37 C43:C44 C82:C83" numberStoredAsText="1"/>
+    <ignoredError sqref="C16:C17 C19:C20 C36:C37 C44:C45 C83:C84" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/doc/sampleUsageOfKeywords.xlsx
+++ b/doc/sampleUsageOfKeywords.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="123">
   <si>
     <t>Action</t>
   </si>
@@ -363,18 +363,6 @@
     <t>Else</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>PutValueIn</t>
-  </si>
-  <si>
-    <t>PutTextIn</t>
-  </si>
-  <si>
     <t>login.Username</t>
   </si>
   <si>
@@ -393,40 +381,7 @@
     <t>inbox.item1</t>
   </si>
   <si>
-    <t>global.successMessage</t>
-  </si>
-  <si>
     <t>Web Element</t>
-  </si>
-  <si>
-    <t>&lt;{login.password}&gt;</t>
-  </si>
-  <si>
-    <t>eplace syntax &lt;{login.username}&gt; message</t>
-  </si>
-  <si>
-    <t>&lt;{login.username}&gt;</t>
-  </si>
-  <si>
-    <t>replace syntax &lt;{login.password}&gt; message</t>
-  </si>
-  <si>
-    <t>&lt;{register.male}&gt;</t>
-  </si>
-  <si>
-    <t>&lt;{user.username}&gt;</t>
-  </si>
-  <si>
-    <t>replace syntax &lt;?name?&gt; message</t>
-  </si>
-  <si>
-    <t>replace syntax &lt;?message?&gt; message</t>
-  </si>
-  <si>
-    <t>&lt;{global.recorddelete}&gt;</t>
-  </si>
-  <si>
-    <t>&lt;{global.successmessage}&gt;</t>
   </si>
   <si>
     <t>CaptureScreenShot</t>
@@ -818,11 +773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -852,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -861,44 +816,44 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -907,1134 +862,1116 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>129</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>129</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>10</v>
+      <c r="A19" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>10</v>
+      <c r="A20" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>3</v>
+      <c r="A21" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>15</v>
+      <c r="A22" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>17</v>
+      <c r="A23" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>18</v>
+      <c r="A24" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>19</v>
+      <c r="A25" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>20</v>
+      <c r="A26" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>20</v>
+      <c r="A27" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="C45" s="4" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="4"/>
+      <c r="C55" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>136</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="C67" s="4" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="C68" s="4" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C71" s="4"/>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C72" s="4"/>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C78" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C81" s="4"/>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C82" s="4"/>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C85" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C86" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C87" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C88" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B89" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="C89" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B90" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="C90" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B91" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="C91" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B92" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="C92" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B93" s="4" t="s">
+      <c r="A93" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="C94" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D94" s="6"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="A95" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+      <c r="A96" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D97" s="4"/>
+      <c r="A97" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="8"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D98" s="4"/>
+      <c r="A98" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="8"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C99" s="4" t="s">
+      <c r="B101" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C100" s="4" t="s">
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C101" s="4" t="s">
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C102" s="4" t="s">
+      <c r="D105" s="8"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D106" s="4"/>
+      <c r="D106" s="8"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
+      <c r="A107" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D108" s="6"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>5</v>
@@ -2042,44 +1979,44 @@
       <c r="D111" s="8"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C112" s="8" t="s">
+      <c r="B113" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D112" s="8"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
+      <c r="D113" s="8"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
-        <v>96</v>
+      <c r="A115" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="D115" s="6"/>
     </row>
@@ -2088,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>5</v>
@@ -2105,24 +2042,24 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C118" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="D118" s="8"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C119" s="8"/>
       <c r="D119" s="8"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2130,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>5</v>
@@ -2146,298 +2083,102 @@
       <c r="D121" s="8"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
-        <v>109</v>
+      <c r="A122" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>110</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C122" s="6"/>
       <c r="D122" s="6"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C123" s="6"/>
       <c r="D123" s="6"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B124" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B125" s="8" t="s">
+      <c r="A125" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C125" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D125" s="8"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
+      <c r="C126" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B126" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" s="8"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
+      <c r="B128" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="D129" s="6"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
       <c r="D130" s="6"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="8"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D134" s="8"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D139" s="6"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D140" s="6"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D143" s="6"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D145" s="8"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D146" s="8"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D147" s="6"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D148" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C16:C17 C19:C20 C36:C37 C44:C45 C83:C84" numberStoredAsText="1"/>
+    <ignoredError sqref="C8:C9 C11:C12 C27:C28 C35:C36 C69:C70" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/doc/sampleUsageOfKeywords.xlsx
+++ b/doc/sampleUsageOfKeywords.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="122">
   <si>
     <t>Action</t>
   </si>
@@ -42,12 +42,6 @@
     <t>ClearAndType</t>
   </si>
   <si>
-    <t>ClearAndTypeUnique</t>
-  </si>
-  <si>
-    <t>TypeUnique</t>
-  </si>
-  <si>
     <t>TypeDate</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>WaitForNotText</t>
   </si>
   <si>
-    <t>WaitForAlert</t>
-  </si>
-  <si>
     <t>WaitForAlertPresent</t>
   </si>
   <si>
@@ -385,6 +376,12 @@
   </si>
   <si>
     <t>CaptureScreenShot</t>
+  </si>
+  <si>
+    <t>TypeRandomAlphabets</t>
+  </si>
+  <si>
+    <t>ClearAndTypeRandomAlphabets</t>
   </si>
 </sst>
 </file>
@@ -773,16 +770,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="48.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" customWidth="1"/>
@@ -793,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -807,7 +804,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -819,7 +816,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -829,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -837,11 +834,11 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
+      <c r="A5" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -849,11 +846,11 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
+      <c r="A6" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -862,76 +859,76 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -939,178 +936,178 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1118,7 +1115,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1126,7 +1123,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1134,7 +1131,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1142,7 +1139,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1150,7 +1147,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1158,70 +1155,70 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>5</v>
@@ -1230,10 +1227,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>5</v>
@@ -1242,207 +1239,207 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="C54" s="4" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>115</v>
@@ -1455,239 +1452,241 @@
         <v>72</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="4"/>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C82" s="4"/>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>5</v>
@@ -1696,10 +1695,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>5</v>
@@ -1708,10 +1707,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>5</v>
@@ -1720,110 +1719,110 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="B92" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" s="6"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
+      <c r="B95" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C96" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="D96" s="8"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>96</v>
+      <c r="A97" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>5</v>
@@ -1831,41 +1830,41 @@
       <c r="D97" s="8"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="A98" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
       <c r="D98" s="8"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="A99" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C100" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D100" s="6"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>5</v>
@@ -1874,40 +1873,40 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
       <c r="D102" s="6"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
+      <c r="B103" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C104" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="D104" s="8"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
-        <v>96</v>
+      <c r="A105" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>5</v>
@@ -1915,186 +1914,184 @@
       <c r="D105" s="8"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="8"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="B108" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="D108" s="6"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
       <c r="D109" s="6"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
+      <c r="A110" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="8"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>5</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C111" s="8"/>
       <c r="D111" s="8"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
-        <v>31</v>
+      <c r="A112" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="D112" s="8"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="8"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="B115" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="D115" s="6"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
       <c r="D116" s="6"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
+      <c r="A117" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="C118" s="8"/>
       <c r="D118" s="8"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
-        <v>31</v>
+      <c r="A119" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C119" s="8"/>
+        <v>113</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="D119" s="8"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="A120" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
       <c r="D120" s="8"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
+      <c r="A121" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>115</v>
@@ -2104,81 +2101,71 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C124" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="D124" s="6"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
-        <v>93</v>
+      <c r="A125" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D125" s="6"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
       <c r="D126" s="6"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B127" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C128" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D128" s="6"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A129" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
       <c r="D129" s="6"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C8:C9 C11:C12 C27:C28 C35:C36 C69:C70" numberStoredAsText="1"/>
+    <ignoredError sqref="C8:C9 C11:C12 C27:C28 C35:C36 C68:C69" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
